--- a/abc.xlsx
+++ b/abc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="182">
   <si>
     <t>軟體</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,7 +592,11 @@
     <t>%CommonStartMenuFolder%\Programs\ASSET 5.6.7</t>
   </si>
   <si>
+    <t>%ProgramFilesFolder32%\Adobe\Adobe Creative Cloud Experience</t>
+  </si>
+  <si>
     <t>%CommonFilesFolder64%\Adobe\Microsoft\EdgeWebView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1621,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1665,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
         <v>128</v>
@@ -1754,39 +1758,36 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
         <v>132</v>
@@ -1794,53 +1795,53 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E22" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
         <v>132</v>
@@ -1848,20 +1849,23 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E29" t="s">
         <v>128</v>
@@ -1869,7 +1873,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
         <v>128</v>
@@ -1877,7 +1881,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
         <v>128</v>
@@ -1885,7 +1889,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
         <v>128</v>
@@ -1893,20 +1897,20 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
         <v>128</v>
@@ -1914,20 +1918,20 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E38" t="s">
         <v>128</v>
@@ -1935,22 +1939,30 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>179</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>128</v>
       </c>
     </row>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
   <si>
     <t>軟體</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +597,12 @@
   <si>
     <t>%CommonFilesFolder64%\Adobe\Microsoft\EdgeWebView</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##Adobe Desktop</t>
+  </si>
+  <si>
+    <t>%ProgramFilesFolder32%\Common Files\Adobe\Adobe Desktop Common</t>
   </si>
 </sst>
 </file>
@@ -1625,16 +1631,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
@@ -1673,12 +1679,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
         <v>128</v>
@@ -1686,92 +1692,92 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
         <v>128</v>
@@ -1779,69 +1785,66 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
         <v>132</v>
@@ -1849,39 +1852,39 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
         <v>128</v>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
         <v>128</v>
@@ -1897,7 +1900,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
         <v>128</v>
@@ -1905,12 +1908,15 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E35" t="s">
         <v>128</v>
@@ -1918,20 +1924,20 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
         <v>128</v>
@@ -1939,20 +1945,20 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
         <v>128</v>
@@ -1960,9 +1966,22 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>179</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>128</v>
       </c>
     </row>
